--- a/nyetemplate.xlsx
+++ b/nyetemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SD Mount\Dropbox\HTML Projects\2021Portfolio\Restaurant_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CD76C8-0E7E-472E-9FC7-8E3923B6DC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A500034-A331-4622-8A5C-242117244267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{E146DB31-F0B0-4F56-9511-0BE69E88531C}"/>
   </bookViews>
@@ -320,10 +320,90 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -333,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,42 +431,124 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -705,705 +867,763 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="50.61328125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.3828125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" style="4"/>
+    <col min="4" max="4" width="7.3046875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="60.3828125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.15234375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.6" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="20.6" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.6" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.6" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.6" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.6" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.6" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.6" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="23.15">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="23.15">
+      <c r="A5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.15">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="23.15">
+      <c r="A7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="17.600000000000001" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.600000000000001" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.600000000000001" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.600000000000001" customHeight="1">
+      <c r="A9" s="46" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="17.600000000000001">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:7" ht="17.600000000000001">
+      <c r="A12" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="17"/>
-      <c r="B13" s="6">
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22">
         <v>12.75</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="23">
         <v>22.95</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="25">
         <v>3.45</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="D14" s="2" t="s">
+    <row r="14" spans="1:7">
+      <c r="E14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="28">
         <v>7.95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.600000000000001">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:7" ht="17.600000000000001">
+      <c r="A15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="28">
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28">
         <v>12.75</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="28">
         <v>9.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28">
         <v>11.75</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="28">
         <v>7.95</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5">
+      <c r="B18" s="27"/>
+      <c r="C18" s="28">
         <v>11.75</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="28">
         <v>9.25</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28">
         <v>11.75</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="28">
         <v>9.75</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="5">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28">
         <v>12.75</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="F20" s="45"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="5">
+      <c r="B21" s="30"/>
+      <c r="C21" s="31">
         <v>11.75</v>
       </c>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="D22"/>
+      <c r="D21" s="5"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="E22"/>
-    </row>
-    <row r="23" spans="1:6" ht="17.600000000000001">
-      <c r="D23" s="17" t="s">
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.600000000000001">
+      <c r="E23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="D24" s="2" t="s">
+      <c r="F23" s="35"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="E24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="28">
         <v>8.75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.600000000000001">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:7" ht="17.600000000000001">
+      <c r="A25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="2" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="28">
         <v>8.75</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5">
+      <c r="B26" s="32"/>
+      <c r="C26" s="28">
         <v>4.75</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="28">
         <v>9.75</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5">
+      <c r="B27" s="32"/>
+      <c r="C27" s="28">
         <v>9.75</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="28">
         <v>9.75</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5">
+      <c r="B28" s="32"/>
+      <c r="C28" s="28">
         <v>9.4499999999999993</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="28">
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5">
+      <c r="B29" s="32"/>
+      <c r="C29" s="28">
         <v>9.4499999999999993</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="28">
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5">
+      <c r="B30" s="32"/>
+      <c r="C30" s="28">
         <v>9.75</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="31">
         <v>7.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5">
+      <c r="B31" s="32"/>
+      <c r="C31" s="28">
         <v>9.75</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.600000000000001">
-      <c r="A32" s="2" t="s">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="17.600000000000001">
+      <c r="A32" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5">
+      <c r="B32" s="32"/>
+      <c r="C32" s="28">
         <v>9.9499999999999993</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
+      <c r="F32" s="35"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5">
+      <c r="B33" s="32"/>
+      <c r="C33" s="28">
         <v>9.9499999999999993</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="28">
         <v>8.75</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5">
+      <c r="B34" s="32"/>
+      <c r="C34" s="28">
         <v>8.25</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="28">
         <v>8.75</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5">
+      <c r="B35" s="32"/>
+      <c r="C35" s="28">
         <v>7.45</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="28">
         <v>9.75</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5">
+      <c r="B36" s="32"/>
+      <c r="C36" s="28">
         <v>5.55</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="5">
+      <c r="F36" s="28">
         <v>9.75</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="5">
+      <c r="B37" s="30"/>
+      <c r="C37" s="31">
         <v>9.9499999999999993</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="5">
+      <c r="F37" s="31">
         <v>8.75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.600000000000001">
-      <c r="D39" s="17" t="s">
+    <row r="39" spans="1:7" ht="17.600000000000001">
+      <c r="E39" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="D40" s="2" t="s">
+      <c r="F39" s="35"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="E40" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="5">
+      <c r="F40" s="28">
         <v>8.75</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.600000000000001">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:7" ht="17.600000000000001">
+      <c r="A41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="2" t="s">
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="28">
         <v>8.75</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5">
+      <c r="B42" s="32"/>
+      <c r="C42" s="28">
         <v>10.45</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="5">
+      <c r="F42" s="28">
         <v>9.75</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5">
+      <c r="B43" s="32"/>
+      <c r="C43" s="28">
         <v>10.45</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="5">
+      <c r="F43" s="28">
         <v>9.75</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5">
+      <c r="B44" s="32"/>
+      <c r="C44" s="28">
         <v>10.45</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="5">
+      <c r="F44" s="31">
         <v>8.25</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="5">
+      <c r="B45" s="30"/>
+      <c r="C45" s="31">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.600000000000001">
-      <c r="D46" s="17" t="s">
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="17.600000000000001">
+      <c r="E46" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="1:6" ht="17.600000000000001">
-      <c r="A47" s="17" t="s">
+      <c r="F46" s="35"/>
+      <c r="G46" s="37"/>
+    </row>
+    <row r="47" spans="1:7" ht="17.600000000000001">
+      <c r="A47" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="8" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2" t="s">
+      <c r="F47" s="42"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5">
+      <c r="B48" s="32"/>
+      <c r="C48" s="28">
         <v>10.95</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
+      <c r="D48" s="5"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="44"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5">
+      <c r="B49" s="32"/>
+      <c r="C49" s="28">
         <v>10.95</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="5"/>
+      <c r="E49" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="5">
+      <c r="F49" s="28">
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5">
+      <c r="B50" s="32"/>
+      <c r="C50" s="28">
         <v>10.95</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="5">
+      <c r="F50" s="28">
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5">
+      <c r="B51" s="32"/>
+      <c r="C51" s="28">
         <v>10.95</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="5"/>
+      <c r="E51" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="5">
+      <c r="F51" s="31">
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5">
+      <c r="B52" s="36"/>
+      <c r="C52" s="31">
         <v>10.95</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="17.600000000000001">
-      <c r="D53" s="17" t="s">
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="17.600000000000001">
+      <c r="E53" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="1:5" ht="17.600000000000001">
-      <c r="A54" s="17" t="s">
+      <c r="F53" s="35"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.600000000000001">
+      <c r="A54" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="16" t="s">
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="5">
+      <c r="F54" s="28">
         <v>13.55</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5">
+      <c r="B55" s="32"/>
+      <c r="C55" s="28">
         <v>8.4499999999999993</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="5"/>
+      <c r="E55" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="5">
+      <c r="F55" s="28">
         <v>13.55</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5">
+      <c r="B56" s="32"/>
+      <c r="C56" s="28">
         <v>10.95</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="5"/>
+      <c r="E56" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="5">
+      <c r="F56" s="28">
         <v>10.45</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5">
+      <c r="B57" s="32"/>
+      <c r="C57" s="28">
         <v>10.95</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="5"/>
+      <c r="E57" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="5">
+      <c r="F57" s="28">
         <v>11.95</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5">
+      <c r="B58" s="36"/>
+      <c r="C58" s="31">
         <v>10.95</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="5"/>
+      <c r="E58" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="5">
+      <c r="F58" s="31">
         <v>11.95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E39:F39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>